--- a/biology/Botanique/Tillandsia_lineatifolia/Tillandsia_lineatifolia.xlsx
+++ b/biology/Botanique/Tillandsia_lineatifolia/Tillandsia_lineatifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia lineatifolia Mez est une plante de la famille des Bromeliaceae.
 L'épithète lineatifolia signifie « à feuille lignée » et se réfère aux veines parallèles ornant les feuilles.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia lineatifolia Mez in C.DC., Monogr. Phan. 9: 686, n° 25 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis dense rosulatis, adultis supra +/- glabris subtus tessellatim lepidotis; inflorescentia simplicissima, optime disticha flabellata ; bracteis dense imbricatis, dorso glabris laevissimisque, apice obtusiusculis, sepala longe superantibus ; floribus erectis ; sepalis aequaliter liberis. »
-Type : leg. Fendlern, n° 2447 ; « Venezuela, mare inter et Petaquiram, alt. 1150 m. » ; Herb. Goett[1].
+Type : leg. Fendlern, n° 2447 ; « Venezuela, mare inter et Petaquiram, alt. 1150 m. » ; Herb. Goett.
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia anceps Lodd[2]
-Tillandsia xiphostachys Griseb[1].</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -577,10 +593,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia anceps Lodd
+Tillandsia xiphostachys Griseb.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,16 +630,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1].
-Habitat : ?
-Altitude : 1150 m[1].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,13 +658,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Venezuela[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte.
+Habitat : ?
+Altitude : 1150 m.</t>
         </is>
       </c>
     </row>
@@ -666,10 +692,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Venezuela</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_lineatifolia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_lineatifolia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
